--- a/CusApp 결함 리포트.xlsx
+++ b/CusApp 결함 리포트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD1-20\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD1-20\Desktop\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF73BE32-2F80-4F8B-A9BB-7F66E6173B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C346BE-3158-4670-AF9C-BD5B38106416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{1A82A88E-671B-4023-A9FF-77CD9B13CF72}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 케이스 식별 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결함 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>생성자를 통한 데이터 전달로 예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 케이스 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,34 +596,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="1"/>
@@ -633,19 +633,19 @@
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="11">
         <v>43509</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="13">
         <v>1</v>
@@ -654,13 +654,13 @@
         <v>43511</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="11">
         <v>43511</v>
@@ -669,34 +669,34 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="11"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="11"/>
@@ -706,7 +706,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="11"/>
       <c r="P4" s="5"/>
